--- a/vocabularies/geochemistry/1.2/geochemistry_1-2.xlsx
+++ b/vocabularies/geochemistry/1.2/geochemistry_1-2.xlsx
@@ -617,7 +617,7 @@
     <t>Energy Dispersive X-Ray spectroscopy</t>
   </si>
   <si>
-    <t>#sem-energy dispersive x-ray spectroscopy#sem-eds#sem-edx#eds#edx#(edx)</t>
+    <t>#sem-energy dispersive x-ray spectroscopy#sem-eds#sem-edx#(eds)#(edx)</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/geochemistry/1.2/technique-energy_dispersive_x-ray_spectroscopy</t>
